--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09375</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.71875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6521739130434782</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="E3" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.676923076923077</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5042372881355932</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5014204545454546</v>
+        <v>0.6775568181818181</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4050343249427917</v>
+        <v>0.6766169154228856</v>
       </c>
       <c r="E5" t="n">
         <v>130</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.504302477183833</v>
+        <v>0.6789010989010988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5076923076923077</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.408836472452033</v>
+        <v>0.6764638346727899</v>
       </c>
       <c r="E6" t="n">
         <v>130</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E2" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.71875</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6865671641791045</v>
+        <v>0.6277372262773722</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.676923076923077</v>
+        <v>0.6076923076923076</v>
       </c>
       <c r="C4" t="n">
-        <v>0.676923076923077</v>
+        <v>0.6076923076923076</v>
       </c>
       <c r="D4" t="n">
-        <v>0.676923076923077</v>
+        <v>0.6076923076923076</v>
       </c>
       <c r="E4" t="n">
-        <v>0.676923076923077</v>
+        <v>0.6076923076923076</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6079016471711626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6775568181818181</v>
+        <v>0.6070075757575757</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6766169154228856</v>
+        <v>0.6065515399679544</v>
       </c>
       <c r="E5" t="n">
         <v>130</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6789010989010988</v>
+        <v>0.6078667572580201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.676923076923077</v>
+        <v>0.6076923076923076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6764638346727899</v>
+        <v>0.6068774736034839</v>
       </c>
       <c r="E6" t="n">
         <v>130</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="E2" t="n">
         <v>64</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6056338028169014</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6515151515151515</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6277372262773722</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="E3" t="n">
         <v>66</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6076923076923076</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6076923076923076</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6076923076923076</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6076923076923076</v>
+        <v>0.4307692307692308</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6079016471711626</v>
+        <v>0.4305019305019305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6070075757575757</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6065515399679544</v>
+        <v>0.4286053694464244</v>
       </c>
       <c r="E5" t="n">
         <v>130</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6078667572580201</v>
+        <v>0.4304722304722305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6076923076923076</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6068774736034839</v>
+        <v>0.4280644041157228</v>
       </c>
       <c r="E6" t="n">
         <v>130</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4324324324324325</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.463768115942029</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.515625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.5689655172413792</v>
       </c>
       <c r="E3" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4305019305019305</v>
+        <v>0.6185897435897436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.6138731060606061</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4286053694464244</v>
+        <v>0.6108716475095786</v>
       </c>
       <c r="E5" t="n">
         <v>130</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4304722304722305</v>
+        <v>0.6183431952662722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4280644041157228</v>
+        <v>0.6115163572060123</v>
       </c>
       <c r="E6" t="n">
         <v>130</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6025641025641025</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6527777777777778</v>
+        <v>0.6299212598425197</v>
       </c>
       <c r="E2" t="n">
         <v>66</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6346153846153846</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.515625</v>
+        <v>0.671875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5689655172413792</v>
+        <v>0.6466165413533834</v>
       </c>
       <c r="E3" t="n">
         <v>64</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6384615384615384</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6185897435897436</v>
+        <v>0.6394630553575671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6138731060606061</v>
+        <v>0.638967803030303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6108716475095786</v>
+        <v>0.6382689005979516</v>
       </c>
       <c r="E5" t="n">
         <v>130</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6183431952662722</v>
+        <v>0.6397134345815743</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6115163572060123</v>
+        <v>0.6381404753555603</v>
       </c>
       <c r="E6" t="n">
         <v>130</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6299212598425197</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="E2" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6231884057971014</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.671875</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6466165413533834</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6394630553575671</v>
+        <v>0.6689976689976691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.638967803030303</v>
+        <v>0.667953667953668</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6382689005979516</v>
+        <v>0.6664092664092665</v>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6397134345815743</v>
+        <v>0.6697746697746698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6381404753555603</v>
+        <v>0.6661518661518662</v>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.4024390243902439</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.696969696969697</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="E3" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6689976689976691</v>
+        <v>0.4189614476789929</v>
       </c>
       <c r="C5" t="n">
-        <v>0.667953667953668</v>
+        <v>0.4202786377708978</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6664092664092665</v>
+        <v>0.4156521739130435</v>
       </c>
       <c r="E5" t="n">
         <v>144</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6697746697746698</v>
+        <v>0.4198793600839234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6661518661518662</v>
+        <v>0.4142995169082126</v>
       </c>
       <c r="E6" t="n">
         <v>144</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4024390243902439</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4852941176470588</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.4296296296296296</v>
       </c>
       <c r="E2" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4354838709677419</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3552631578947368</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.391304347826087</v>
+        <v>0.4967320261437909</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4652777777777778</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4189614476789929</v>
+        <v>0.4632867132867133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4202786377708978</v>
+        <v>0.4634782608695652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4156521739130435</v>
+        <v>0.4631808278867103</v>
       </c>
       <c r="E5" t="n">
         <v>144</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4198793600839234</v>
+        <v>0.4642822455322456</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4142995169082126</v>
+        <v>0.4645787944807552</v>
       </c>
       <c r="E6" t="n">
         <v>144</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.6781609195402298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4202898550724637</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4296296296296296</v>
+        <v>0.7195121951219511</v>
       </c>
       <c r="E2" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5066666666666667</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4967320261437909</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.6805555555555556</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4632867132867133</v>
+        <v>0.6811857229280096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4634782608695652</v>
+        <v>0.6741616592362861</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4631808278867103</v>
+        <v>0.6742722265932336</v>
       </c>
       <c r="E5" t="n">
         <v>144</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4642822455322456</v>
+        <v>0.6809756671371916</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4645787944807552</v>
+        <v>0.6774138910743945</v>
       </c>
       <c r="E6" t="n">
         <v>144</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6781609195402298</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7662337662337663</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7195121951219511</v>
+        <v>0.5960264900662252</v>
       </c>
       <c r="E2" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.582089552238806</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.5547445255474451</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.5763888888888888</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6811857229280096</v>
+        <v>0.5793650793650793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6741616592362861</v>
+        <v>0.5781853281853282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6742722265932336</v>
+        <v>0.5753855078068352</v>
       </c>
       <c r="E5" t="n">
         <v>144</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6809756671371916</v>
+        <v>0.580026455026455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6774138910743945</v>
+        <v>0.5748121471885188</v>
       </c>
       <c r="E6" t="n">
         <v>144</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5960264900662252</v>
+        <v>0.5906040268456376</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5547445255474451</v>
+        <v>0.5611510791366906</v>
       </c>
       <c r="E3" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5793650793650793</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5781853281853282</v>
+        <v>0.5767590618336886</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5753855078068352</v>
+        <v>0.5758775529911642</v>
       </c>
       <c r="E5" t="n">
         <v>144</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.580026455026455</v>
+        <v>0.5788001543209877</v>
       </c>
       <c r="C6" t="n">
         <v>0.5763888888888888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5748121471885188</v>
+        <v>0.5769002247866136</v>
       </c>
       <c r="E6" t="n">
         <v>144</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5906040268456376</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="E2" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.582089552238806</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5611510791366906</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="E3" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.4413847364280095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5767590618336886</v>
+        <v>0.4424710424710425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5758775529911642</v>
+        <v>0.4405594405594406</v>
       </c>
       <c r="E5" t="n">
         <v>144</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5788001543209877</v>
+        <v>0.4419966780312965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5769002247866136</v>
+        <v>0.4418544418544419</v>
       </c>
       <c r="E6" t="n">
         <v>144</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4672131147540984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="D2" t="n">
-        <v>0.393939393939394</v>
+        <v>0.4789915966386554</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.4824561403508772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.4700854700854701</v>
       </c>
       <c r="E3" t="n">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4745762711864407</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4413847364280095</v>
+        <v>0.4748346275524878</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4424710424710425</v>
+        <v>0.4748563218390804</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4405594405594406</v>
+        <v>0.4745385333620628</v>
       </c>
       <c r="E5" t="n">
-        <v>144</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4419966780312965</v>
+        <v>0.4749638057355113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4418544418544419</v>
+        <v>0.4744630577133069</v>
       </c>
       <c r="E6" t="n">
-        <v>144</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4672131147540984</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4913793103448276</v>
+        <v>0.8805970149253731</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4789915966386554</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="E2" t="n">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4824561403508772</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4700854700854701</v>
+        <v>0.3</v>
       </c>
       <c r="E3" t="n">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5138888888888888</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4748346275524878</v>
+        <v>0.5698886094143011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4748563218390804</v>
+        <v>0.537701104865284</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4745385333620628</v>
+        <v>0.4638297872340426</v>
       </c>
       <c r="E5" t="n">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4749638057355113</v>
+        <v>0.5756028666107718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4744630577133069</v>
+        <v>0.4524527186761229</v>
       </c>
       <c r="E6" t="n">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.487603305785124</v>
+        <v>0.4891304347826087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8805970149253731</v>
+        <v>0.7377049180327869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6276595744680851</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E2" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1948051948051948</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5698886094143011</v>
+        <v>0.5907190635451505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.537701104865284</v>
+        <v>0.5857199288959115</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4638297872340426</v>
+        <v>0.5607843137254902</v>
       </c>
       <c r="E5" t="n">
         <v>144</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5756028666107718</v>
+        <v>0.6062395484949833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4524527186761229</v>
+        <v>0.5565904139433551</v>
       </c>
       <c r="E6" t="n">
         <v>144</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4891304347826087</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C2" t="n">
         <v>0.7377049180327869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="E2" t="n">
         <v>61</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4337349397590362</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5333333333333332</v>
+        <v>0.6056338028169013</v>
       </c>
       <c r="E3" t="n">
         <v>83</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5625</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5625</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5625</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5625</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5907190635451505</v>
+        <v>0.6291126620139581</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5857199288959115</v>
+        <v>0.6278886035947067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5607843137254902</v>
+        <v>0.6110360794906424</v>
       </c>
       <c r="E5" t="n">
         <v>144</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6062395484949833</v>
+        <v>0.6443447435471364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5625</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5565904139433551</v>
+        <v>0.6102107316654874</v>
       </c>
       <c r="E6" t="n">
         <v>144</v>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7377049180327869</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.5095541401273885</v>
       </c>
       <c r="E2" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7288135593220338</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5180722891566265</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6056338028169013</v>
+        <v>0.5276073619631901</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.51875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.51875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.51875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.51875</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6291126620139581</v>
+        <v>0.5196078431372548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6278886035947067</v>
+        <v>0.5195434646654159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6110360794906424</v>
+        <v>0.5185807510452893</v>
       </c>
       <c r="E5" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6443447435471364</v>
+        <v>0.5199509803921568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.51875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6102107316654874</v>
+        <v>0.5183550857723418</v>
       </c>
       <c r="E6" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/SVM for Unicorn Data/svm_classification_report_f.xlsx
+++ b/SVM for Unicorn Data/svm_classification_report_f.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5095541401273885</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E2" t="n">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5058823529411764</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5512820512820513</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5276073619631901</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E3" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.51875</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.51875</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51875</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.51875</v>
+        <v>0.5517241379310345</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5196078431372548</v>
+        <v>0.5543608124253285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5195434646654159</v>
+        <v>0.5543608124253285</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5185807510452893</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5199509803921568</v>
+        <v>0.5569974869196226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.51875</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5183550857723418</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E6" t="n">
-        <v>160</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
